--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F044B746-3F6C-428A-9507-CA81295DD635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5408308-CC7F-4550-A3FB-EB663A494D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>PJ名</t>
   </si>
@@ -397,22 +397,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>プロジェクト更新：入力画面へ戻る</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>プロジェクト検索：検索画面初期表示</t>
     <rPh sb="6" eb="8">
       <t>ケンサク</t>
@@ -562,16 +546,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>第１．３版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
     <t>Spring Web MVCのルーティング方式に合わせてURLを更新</t>
     <rPh sb="21" eb="23">
       <t>ホウシキ</t>
@@ -581,6 +555,248 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.4版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．４版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト画面追加</t>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/download</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/download/confirm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/download/execute</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/download/complete</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/download/file</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト：初期表示</t>
+    <rPh sb="3" eb="6">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト：確認処理</t>
+    <rPh sb="3" eb="6">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト：要求処理</t>
+    <rPh sb="3" eb="6">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト：要求完了表示</t>
+    <rPh sb="3" eb="6">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト：初期表示画面へ戻る</t>
+    <rPh sb="3" eb="6">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/update/execute</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：初期表示画面へ戻る</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト：ダウンロード</t>
+    <rPh sb="3" eb="6">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/upload</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/upload/confirm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/upload/execute</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/project/upload/complete</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトアップロード：初期表示</t>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトアップロード：確認処理</t>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトアップロード：要求処理</t>
+    <rPh sb="13" eb="15">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトアップロード：要求完了表示</t>
+    <rPh sb="13" eb="15">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトアップロード：初期表示画面へ戻る</t>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトアップロード画面追加</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -994,7 +1210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1319,6 +1535,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1455,7 +1682,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1592,22 +1819,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1652,8 +1879,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1854,9 +2087,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1872,9 +2102,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1962,8 +2189,14 @@
     <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2877,7 +3110,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2891,7 +3124,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="62">
         <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
-        <v>44691</v>
+        <v>44889</v>
       </c>
       <c r="J25" s="62"/>
       <c r="K25" s="62"/>
@@ -3492,57 +3725,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="113" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="122" t="s">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="103" t="s">
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="131" t="str">
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="133" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="96">
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="98">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="98"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="100"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3550,53 +3783,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="103" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="109" t="str">
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="96">
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="98">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44691</v>
-      </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="98"/>
+        <v>44889</v>
+      </c>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="100"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3604,45 +3837,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="134" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="98"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="100"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3679,123 +3912,123 @@
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="99" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="102" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="99" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="99" t="s">
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="100"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="102"/>
     </row>
     <row r="8" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="50">
         <v>1</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="84">
         <v>1</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84">
+      <c r="C8" s="85"/>
+      <c r="D8" s="86">
         <v>43630</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87" t="s">
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93" t="s">
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="90" t="s">
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="92"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="94"/>
     </row>
     <row r="9" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48">
         <v>2</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="81">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="65">
         <v>43804</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="67"/>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="83" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="68"/>
       <c r="I9" s="64"/>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="77" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="70"/>
@@ -3804,8 +4037,8 @@
       <c r="N9" s="70"/>
       <c r="O9" s="70"/>
       <c r="P9" s="71"/>
-      <c r="Q9" s="78" t="s">
-        <v>73</v>
+      <c r="Q9" s="80" t="s">
+        <v>72</v>
       </c>
       <c r="R9" s="73"/>
       <c r="S9" s="73"/>
@@ -3822,7 +4055,7 @@
       <c r="AD9" s="73"/>
       <c r="AE9" s="74"/>
       <c r="AF9" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG9" s="70"/>
       <c r="AH9" s="70"/>
@@ -3832,8 +4065,8 @@
       <c r="A10" s="48">
         <v>3</v>
       </c>
-      <c r="B10" s="77" t="s">
-        <v>75</v>
+      <c r="B10" s="79" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="65">
@@ -3841,12 +4074,12 @@
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="67"/>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="79" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="64"/>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="77" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="70"/>
@@ -3855,8 +4088,8 @@
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
       <c r="P10" s="71"/>
-      <c r="Q10" s="78" t="s">
-        <v>76</v>
+      <c r="Q10" s="80" t="s">
+        <v>75</v>
       </c>
       <c r="R10" s="73"/>
       <c r="S10" s="73"/>
@@ -3872,7 +4105,7 @@
       <c r="AC10" s="73"/>
       <c r="AD10" s="73"/>
       <c r="AE10" s="74"/>
-      <c r="AF10" s="76" t="s">
+      <c r="AF10" s="77" t="s">
         <v>25</v>
       </c>
       <c r="AG10" s="70"/>
@@ -3884,7 +4117,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="65">
@@ -3897,7 +4130,7 @@
       </c>
       <c r="H11" s="68"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="77" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="70"/>
@@ -3906,8 +4139,8 @@
       <c r="N11" s="70"/>
       <c r="O11" s="70"/>
       <c r="P11" s="71"/>
-      <c r="Q11" s="182" t="s">
-        <v>80</v>
+      <c r="Q11" s="78" t="s">
+        <v>78</v>
       </c>
       <c r="R11" s="73"/>
       <c r="S11" s="73"/>
@@ -3924,30 +4157,42 @@
       <c r="AD11" s="73"/>
       <c r="AE11" s="74"/>
       <c r="AF11" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG11" s="70"/>
       <c r="AH11" s="70"/>
       <c r="AI11" s="71"/>
     </row>
     <row r="12" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="48">
+        <v>5</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>79</v>
+      </c>
       <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
+      <c r="D12" s="65">
+        <v>44869</v>
+      </c>
       <c r="E12" s="66"/>
       <c r="F12" s="67"/>
-      <c r="G12" s="63"/>
+      <c r="G12" s="63" t="s">
+        <v>4</v>
+      </c>
       <c r="H12" s="68"/>
       <c r="I12" s="64"/>
-      <c r="J12" s="69"/>
+      <c r="J12" s="77" t="s">
+        <v>51</v>
+      </c>
       <c r="K12" s="70"/>
       <c r="L12" s="70"/>
       <c r="M12" s="70"/>
       <c r="N12" s="70"/>
       <c r="O12" s="70"/>
       <c r="P12" s="71"/>
-      <c r="Q12" s="72"/>
+      <c r="Q12" s="78" t="s">
+        <v>81</v>
+      </c>
       <c r="R12" s="73"/>
       <c r="S12" s="73"/>
       <c r="T12" s="73"/>
@@ -3962,29 +4207,43 @@
       <c r="AC12" s="73"/>
       <c r="AD12" s="73"/>
       <c r="AE12" s="74"/>
-      <c r="AF12" s="69"/>
+      <c r="AF12" s="69" t="s">
+        <v>77</v>
+      </c>
       <c r="AG12" s="70"/>
       <c r="AH12" s="70"/>
       <c r="AI12" s="71"/>
     </row>
     <row r="13" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="48">
+        <v>6</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>79</v>
+      </c>
       <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
+      <c r="D13" s="65">
+        <v>44889</v>
+      </c>
       <c r="E13" s="66"/>
       <c r="F13" s="67"/>
-      <c r="G13" s="63"/>
+      <c r="G13" s="63" t="s">
+        <v>4</v>
+      </c>
       <c r="H13" s="68"/>
       <c r="I13" s="64"/>
-      <c r="J13" s="69"/>
+      <c r="J13" s="77" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="70"/>
       <c r="L13" s="70"/>
       <c r="M13" s="70"/>
       <c r="N13" s="70"/>
       <c r="O13" s="70"/>
       <c r="P13" s="71"/>
-      <c r="Q13" s="72"/>
+      <c r="Q13" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="R13" s="73"/>
       <c r="S13" s="73"/>
       <c r="T13" s="73"/>
@@ -3999,7 +4258,9 @@
       <c r="AC13" s="73"/>
       <c r="AD13" s="73"/>
       <c r="AE13" s="74"/>
-      <c r="AF13" s="69"/>
+      <c r="AF13" s="184" t="s">
+        <v>77</v>
+      </c>
       <c r="AG13" s="70"/>
       <c r="AH13" s="70"/>
       <c r="AI13" s="71"/>
@@ -5084,163 +5345,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106" t="str">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="113" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="135" t="str">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="136" t="s">
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="131" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="138">
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="140">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106" t="str">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="136" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="131" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="138">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="140">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44691</v>
-      </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+        <v>44889</v>
+      </c>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106" t="str">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="131" t="str">
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="138" t="str">
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="142"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6549,7 +6810,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT29"/>
+  <dimension ref="A1:AT40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6563,25 +6824,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106" t="str">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
       <c r="O1" s="173" t="s">
         <v>17</v>
       </c>
@@ -6602,44 +6863,44 @@
       <c r="AA1" s="162"/>
       <c r="AB1" s="162"/>
       <c r="AC1" s="163"/>
-      <c r="AD1" s="103" t="s">
+      <c r="AD1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="131" t="str">
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="138">
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="140">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="139"/>
-      <c r="AL1" s="140"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="142"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106" t="str">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="176"/>
       <c r="P2" s="177"/>
       <c r="Q2" s="177"/>
@@ -6655,44 +6916,44 @@
       <c r="AA2" s="165"/>
       <c r="AB2" s="165"/>
       <c r="AC2" s="166"/>
-      <c r="AD2" s="103" t="s">
+      <c r="AD2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="131" t="str">
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="138">
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="140">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44691</v>
-      </c>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="140"/>
+        <v>44889</v>
+      </c>
+      <c r="AK2" s="141"/>
+      <c r="AL2" s="142"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106" t="str">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="110"/>
       <c r="O3" s="179"/>
       <c r="P3" s="180"/>
       <c r="Q3" s="180"/>
@@ -6708,21 +6969,21 @@
       <c r="AA3" s="168"/>
       <c r="AB3" s="168"/>
       <c r="AC3" s="169"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="131" t="str">
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="133"/>
-      <c r="AJ3" s="138" t="str">
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="140"/>
+      <c r="AK3" s="141"/>
+      <c r="AL3" s="142"/>
     </row>
     <row r="4" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -6796,38 +7057,38 @@
       <c r="I8" s="155"/>
       <c r="J8" s="155"/>
       <c r="K8" s="156"/>
-      <c r="L8" s="76" t="s">
+      <c r="L8" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="149"/>
-      <c r="N8" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="76" t="s">
+      <c r="M8" s="150"/>
+      <c r="N8" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="148"/>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="149"/>
+      <c r="AJ8" s="149"/>
+      <c r="AK8" s="150"/>
     </row>
     <row r="9" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="48">
@@ -6842,38 +7103,38 @@
       <c r="I9" s="158"/>
       <c r="J9" s="158"/>
       <c r="K9" s="159"/>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="149"/>
-      <c r="N9" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="76" t="s">
+      <c r="M9" s="150"/>
+      <c r="N9" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="148"/>
-      <c r="AJ9" s="148"/>
-      <c r="AK9" s="149"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="149"/>
+      <c r="AH9" s="149"/>
+      <c r="AI9" s="149"/>
+      <c r="AJ9" s="149"/>
+      <c r="AK9" s="150"/>
     </row>
     <row r="10" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="48">
@@ -6888,38 +7149,38 @@
       <c r="I10" s="158"/>
       <c r="J10" s="158"/>
       <c r="K10" s="159"/>
-      <c r="L10" s="76" t="s">
+      <c r="L10" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="149"/>
-      <c r="N10" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="76" t="s">
+      <c r="M10" s="150"/>
+      <c r="N10" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="148"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="148"/>
-      <c r="AJ10" s="148"/>
-      <c r="AK10" s="149"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="149"/>
+      <c r="AJ10" s="149"/>
+      <c r="AK10" s="150"/>
     </row>
     <row r="11" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="48">
@@ -6934,502 +7195,502 @@
       <c r="I11" s="158"/>
       <c r="J11" s="158"/>
       <c r="K11" s="159"/>
-      <c r="L11" s="76" t="s">
+      <c r="L11" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="149"/>
-      <c r="N11" s="76" t="s">
+      <c r="M11" s="150"/>
+      <c r="N11" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="76" t="s">
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="148"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="148"/>
-      <c r="AJ11" s="148"/>
-      <c r="AK11" s="149"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="149"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="149"/>
+      <c r="AH11" s="149"/>
+      <c r="AI11" s="149"/>
+      <c r="AJ11" s="149"/>
+      <c r="AK11" s="150"/>
     </row>
     <row r="12" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152" t="s">
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="148" t="s">
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="149"/>
-      <c r="N12" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="150"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="150"/>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="76" t="s">
+      <c r="M12" s="150"/>
+      <c r="N12" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="148"/>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="148"/>
-      <c r="AJ12" s="148"/>
-      <c r="AK12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="150"/>
     </row>
     <row r="13" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="148" t="s">
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="149"/>
-      <c r="N13" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="150"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="150"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="76" t="s">
+      <c r="M13" s="150"/>
+      <c r="N13" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="148"/>
-      <c r="AG13" s="148"/>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="148"/>
-      <c r="AJ13" s="148"/>
-      <c r="AK13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="150"/>
     </row>
     <row r="14" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="148" t="s">
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="149"/>
-      <c r="N14" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="76" t="s">
+      <c r="M14" s="150"/>
+      <c r="N14" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="148"/>
-      <c r="AG14" s="148"/>
-      <c r="AH14" s="148"/>
-      <c r="AI14" s="148"/>
-      <c r="AJ14" s="148"/>
-      <c r="AK14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="149"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="149"/>
+      <c r="AK14" s="150"/>
     </row>
     <row r="15" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="148" t="s">
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="149"/>
-      <c r="N15" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="76" t="s">
+      <c r="M15" s="150"/>
+      <c r="N15" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="152"/>
+      <c r="Y15" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="148"/>
-      <c r="AG15" s="148"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="148"/>
-      <c r="AJ15" s="148"/>
-      <c r="AK15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="150"/>
     </row>
     <row r="16" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="148" t="s">
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="149"/>
-      <c r="N16" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="150"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="150"/>
-      <c r="S16" s="150"/>
-      <c r="T16" s="150"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="150"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="76" t="s">
+      <c r="M16" s="150"/>
+      <c r="N16" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="148"/>
-      <c r="AG16" s="148"/>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="148"/>
-      <c r="AJ16" s="148"/>
-      <c r="AK16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+      <c r="AK16" s="150"/>
     </row>
     <row r="17" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="55">
         <f t="shared" ref="C17:C24" si="1">C16+1</f>
         <v>10</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="148" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="149"/>
-      <c r="N17" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="150"/>
-      <c r="P17" s="150"/>
-      <c r="Q17" s="150"/>
-      <c r="R17" s="150"/>
-      <c r="S17" s="150"/>
-      <c r="T17" s="150"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="150"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="148"/>
-      <c r="AG17" s="148"/>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="148"/>
-      <c r="AJ17" s="148"/>
-      <c r="AK17" s="149"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="151"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="150"/>
     </row>
     <row r="18" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="55">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="148" t="s">
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="149"/>
-      <c r="N18" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="150"/>
-      <c r="P18" s="150"/>
-      <c r="Q18" s="150"/>
-      <c r="R18" s="150"/>
-      <c r="S18" s="150"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="150"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="150"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="148"/>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="148"/>
-      <c r="AK18" s="149"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="150"/>
     </row>
     <row r="19" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="55">
         <f>C18+1</f>
         <v>12</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="148" t="s">
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="149"/>
-      <c r="N19" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="150"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="150"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="150"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="148"/>
-      <c r="AG19" s="148"/>
-      <c r="AH19" s="148"/>
-      <c r="AI19" s="148"/>
-      <c r="AJ19" s="148"/>
-      <c r="AK19" s="149"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="150"/>
     </row>
     <row r="20" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="55">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="141" t="s">
+      <c r="D20" s="147"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="142"/>
-      <c r="N20" s="143" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="143" t="s">
+      <c r="M20" s="144"/>
+      <c r="N20" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="146"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="146"/>
+      <c r="X20" s="146"/>
+      <c r="Y20" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="142"/>
-      <c r="AD20" s="142"/>
-      <c r="AE20" s="142"/>
-      <c r="AF20" s="142"/>
-      <c r="AG20" s="142"/>
-      <c r="AH20" s="142"/>
-      <c r="AI20" s="142"/>
-      <c r="AJ20" s="142"/>
-      <c r="AK20" s="142"/>
+      <c r="Z20" s="144"/>
+      <c r="AA20" s="144"/>
+      <c r="AB20" s="144"/>
+      <c r="AC20" s="144"/>
+      <c r="AD20" s="144"/>
+      <c r="AE20" s="144"/>
+      <c r="AF20" s="144"/>
+      <c r="AG20" s="144"/>
+      <c r="AH20" s="144"/>
+      <c r="AI20" s="144"/>
+      <c r="AJ20" s="144"/>
+      <c r="AK20" s="144"/>
     </row>
     <row r="21" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C21" s="55">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="141" t="s">
+      <c r="D21" s="147"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="142"/>
-      <c r="N21" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="143" t="s">
+      <c r="M21" s="144"/>
+      <c r="N21" s="145" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="146"/>
+      <c r="T21" s="146"/>
+      <c r="U21" s="146"/>
+      <c r="V21" s="146"/>
+      <c r="W21" s="146"/>
+      <c r="X21" s="146"/>
+      <c r="Y21" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="Z21" s="142"/>
-      <c r="AA21" s="142"/>
-      <c r="AB21" s="142"/>
-      <c r="AC21" s="142"/>
-      <c r="AD21" s="142"/>
-      <c r="AE21" s="142"/>
-      <c r="AF21" s="142"/>
-      <c r="AG21" s="142"/>
-      <c r="AH21" s="142"/>
-      <c r="AI21" s="142"/>
-      <c r="AJ21" s="142"/>
-      <c r="AK21" s="142"/>
+      <c r="Z21" s="144"/>
+      <c r="AA21" s="144"/>
+      <c r="AB21" s="144"/>
+      <c r="AC21" s="144"/>
+      <c r="AD21" s="144"/>
+      <c r="AE21" s="144"/>
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="144"/>
+      <c r="AI21" s="144"/>
+      <c r="AJ21" s="144"/>
+      <c r="AK21" s="144"/>
     </row>
     <row r="22" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
@@ -7438,46 +7699,46 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="141" t="s">
+      <c r="D22" s="147"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="142"/>
-      <c r="N22" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="143" t="s">
+      <c r="M22" s="144"/>
+      <c r="N22" s="145" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="146"/>
+      <c r="T22" s="146"/>
+      <c r="U22" s="146"/>
+      <c r="V22" s="146"/>
+      <c r="W22" s="146"/>
+      <c r="X22" s="146"/>
+      <c r="Y22" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="142"/>
-      <c r="AB22" s="142"/>
-      <c r="AC22" s="142"/>
-      <c r="AD22" s="142"/>
-      <c r="AE22" s="142"/>
-      <c r="AF22" s="142"/>
-      <c r="AG22" s="142"/>
-      <c r="AH22" s="142"/>
-      <c r="AI22" s="142"/>
-      <c r="AJ22" s="142"/>
-      <c r="AK22" s="142"/>
+      <c r="Z22" s="144"/>
+      <c r="AA22" s="144"/>
+      <c r="AB22" s="144"/>
+      <c r="AC22" s="144"/>
+      <c r="AD22" s="144"/>
+      <c r="AE22" s="144"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="144"/>
+      <c r="AH22" s="144"/>
+      <c r="AI22" s="144"/>
+      <c r="AJ22" s="144"/>
+      <c r="AK22" s="144"/>
       <c r="AL22" s="14"/>
       <c r="AM22" s="14"/>
       <c r="AN22" s="14"/>
@@ -7495,46 +7756,46 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="141" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="142"/>
-      <c r="N23" s="143" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="143" t="s">
+      <c r="M23" s="144"/>
+      <c r="N23" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="146"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="146"/>
+      <c r="X23" s="146"/>
+      <c r="Y23" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="Z23" s="142"/>
-      <c r="AA23" s="142"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="142"/>
-      <c r="AD23" s="142"/>
-      <c r="AE23" s="142"/>
-      <c r="AF23" s="142"/>
-      <c r="AG23" s="142"/>
-      <c r="AH23" s="142"/>
-      <c r="AI23" s="142"/>
-      <c r="AJ23" s="142"/>
-      <c r="AK23" s="142"/>
+      <c r="Z23" s="144"/>
+      <c r="AA23" s="144"/>
+      <c r="AB23" s="144"/>
+      <c r="AC23" s="144"/>
+      <c r="AD23" s="144"/>
+      <c r="AE23" s="144"/>
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="144"/>
+      <c r="AH23" s="144"/>
+      <c r="AI23" s="144"/>
+      <c r="AJ23" s="144"/>
+      <c r="AK23" s="144"/>
       <c r="AL23" s="14"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="14"/>
@@ -7553,45 +7814,45 @@
         <v>17</v>
       </c>
       <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="141" t="s">
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="142"/>
-      <c r="N24" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="143" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z24" s="142"/>
-      <c r="AA24" s="142"/>
-      <c r="AB24" s="142"/>
-      <c r="AC24" s="142"/>
-      <c r="AD24" s="142"/>
-      <c r="AE24" s="142"/>
-      <c r="AF24" s="142"/>
-      <c r="AG24" s="142"/>
-      <c r="AH24" s="142"/>
-      <c r="AI24" s="142"/>
-      <c r="AJ24" s="142"/>
-      <c r="AK24" s="142"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="145" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="146"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="146"/>
+      <c r="T24" s="146"/>
+      <c r="U24" s="146"/>
+      <c r="V24" s="146"/>
+      <c r="W24" s="146"/>
+      <c r="X24" s="146"/>
+      <c r="Y24" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z24" s="144"/>
+      <c r="AA24" s="144"/>
+      <c r="AB24" s="144"/>
+      <c r="AC24" s="144"/>
+      <c r="AD24" s="144"/>
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="144"/>
+      <c r="AI24" s="144"/>
+      <c r="AJ24" s="144"/>
+      <c r="AK24" s="144"/>
       <c r="AL24" s="14"/>
       <c r="AM24" s="14"/>
       <c r="AN24" s="14"/>
@@ -7604,42 +7865,51 @@
     </row>
     <row r="25" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="55">
+        <f t="shared" ref="C25:C29" si="2">C24+1</f>
+        <v>18</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="144"/>
+      <c r="N25" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="146"/>
+      <c r="T25" s="146"/>
+      <c r="U25" s="146"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="146"/>
+      <c r="Y25" s="145" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z25" s="144"/>
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="144"/>
+      <c r="AC25" s="144"/>
+      <c r="AD25" s="144"/>
+      <c r="AE25" s="144"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="144"/>
+      <c r="AH25" s="144"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="144"/>
+      <c r="AK25" s="144"/>
       <c r="AL25" s="14"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="14"/>
@@ -7653,41 +7923,50 @@
     <row r="26" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
+      <c r="C26" s="55">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="144"/>
+      <c r="N26" s="145" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" s="146"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="146"/>
+      <c r="U26" s="146"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="146"/>
+      <c r="Y26" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z26" s="144"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="144"/>
+      <c r="AC26" s="144"/>
+      <c r="AD26" s="144"/>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="144"/>
+      <c r="AJ26" s="144"/>
+      <c r="AK26" s="144"/>
       <c r="AL26" s="14"/>
       <c r="AM26" s="14"/>
       <c r="AN26" s="14"/>
@@ -7701,41 +7980,50 @@
     <row r="27" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
+      <c r="C27" s="55">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="144"/>
+      <c r="N27" s="145" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="146"/>
+      <c r="U27" s="146"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z27" s="144"/>
+      <c r="AA27" s="144"/>
+      <c r="AB27" s="144"/>
+      <c r="AC27" s="144"/>
+      <c r="AD27" s="144"/>
+      <c r="AE27" s="144"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="144"/>
+      <c r="AH27" s="144"/>
+      <c r="AI27" s="144"/>
+      <c r="AJ27" s="144"/>
+      <c r="AK27" s="144"/>
       <c r="AL27" s="14"/>
       <c r="AM27" s="14"/>
       <c r="AN27" s="14"/>
@@ -7749,41 +8037,50 @@
     <row r="28" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
+      <c r="C28" s="55">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="144"/>
+      <c r="N28" s="145" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="146"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="144"/>
+      <c r="AB28" s="144"/>
+      <c r="AC28" s="144"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="144"/>
+      <c r="AJ28" s="144"/>
+      <c r="AK28" s="144"/>
       <c r="AL28" s="14"/>
       <c r="AM28" s="14"/>
       <c r="AN28" s="14"/>
@@ -7797,41 +8094,50 @@
     <row r="29" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
+      <c r="C29" s="55">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="144"/>
+      <c r="N29" s="145" t="s">
+        <v>84</v>
+      </c>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="146"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="144"/>
+      <c r="AB29" s="144"/>
+      <c r="AC29" s="144"/>
+      <c r="AD29" s="144"/>
+      <c r="AE29" s="144"/>
+      <c r="AF29" s="144"/>
+      <c r="AG29" s="144"/>
+      <c r="AH29" s="144"/>
+      <c r="AI29" s="144"/>
+      <c r="AJ29" s="144"/>
+      <c r="AK29" s="144"/>
       <c r="AL29" s="14"/>
       <c r="AM29" s="14"/>
       <c r="AN29" s="14"/>
@@ -7842,8 +8148,585 @@
       <c r="AS29" s="14"/>
       <c r="AT29" s="14"/>
     </row>
+    <row r="30" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="55">
+        <f>C29+1</f>
+        <v>23</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="144"/>
+      <c r="N30" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="146"/>
+      <c r="X30" s="146"/>
+      <c r="Y30" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z30" s="144"/>
+      <c r="AA30" s="144"/>
+      <c r="AB30" s="144"/>
+      <c r="AC30" s="144"/>
+      <c r="AD30" s="144"/>
+      <c r="AE30" s="144"/>
+      <c r="AF30" s="144"/>
+      <c r="AG30" s="144"/>
+      <c r="AH30" s="144"/>
+      <c r="AI30" s="144"/>
+      <c r="AJ30" s="144"/>
+      <c r="AK30" s="144"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+    </row>
+    <row r="31" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="55">
+        <f t="shared" ref="C31:C35" si="3">C30+1</f>
+        <v>24</v>
+      </c>
+      <c r="D31" s="147"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="144"/>
+      <c r="N31" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z31" s="144"/>
+      <c r="AA31" s="144"/>
+      <c r="AB31" s="144"/>
+      <c r="AC31" s="144"/>
+      <c r="AD31" s="144"/>
+      <c r="AE31" s="144"/>
+      <c r="AF31" s="144"/>
+      <c r="AG31" s="144"/>
+      <c r="AH31" s="144"/>
+      <c r="AI31" s="144"/>
+      <c r="AJ31" s="144"/>
+      <c r="AK31" s="144"/>
+    </row>
+    <row r="32" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="55">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D32" s="147"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="144"/>
+      <c r="N32" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="146"/>
+      <c r="X32" s="146"/>
+      <c r="Y32" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="144"/>
+      <c r="AA32" s="144"/>
+      <c r="AB32" s="144"/>
+      <c r="AC32" s="144"/>
+      <c r="AD32" s="144"/>
+      <c r="AE32" s="144"/>
+      <c r="AF32" s="144"/>
+      <c r="AG32" s="144"/>
+      <c r="AH32" s="144"/>
+      <c r="AI32" s="144"/>
+      <c r="AJ32" s="144"/>
+      <c r="AK32" s="144"/>
+    </row>
+    <row r="33" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="55">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D33" s="147"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="144"/>
+      <c r="N33" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="146"/>
+      <c r="V33" s="146"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="146"/>
+      <c r="Y33" s="145" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z33" s="144"/>
+      <c r="AA33" s="144"/>
+      <c r="AB33" s="144"/>
+      <c r="AC33" s="144"/>
+      <c r="AD33" s="144"/>
+      <c r="AE33" s="144"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="144"/>
+      <c r="AH33" s="144"/>
+      <c r="AI33" s="144"/>
+      <c r="AJ33" s="144"/>
+      <c r="AK33" s="144"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+    </row>
+    <row r="34" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="55">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="146"/>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="146"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="146"/>
+      <c r="T34" s="146"/>
+      <c r="U34" s="146"/>
+      <c r="V34" s="146"/>
+      <c r="W34" s="146"/>
+      <c r="X34" s="146"/>
+      <c r="Y34" s="145" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z34" s="144"/>
+      <c r="AA34" s="144"/>
+      <c r="AB34" s="144"/>
+      <c r="AC34" s="144"/>
+      <c r="AD34" s="144"/>
+      <c r="AE34" s="144"/>
+      <c r="AF34" s="144"/>
+      <c r="AG34" s="144"/>
+      <c r="AH34" s="144"/>
+      <c r="AI34" s="144"/>
+      <c r="AJ34" s="144"/>
+      <c r="AK34" s="144"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+    </row>
+    <row r="35" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="55">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="144"/>
+      <c r="N35" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="O35" s="146"/>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="146"/>
+      <c r="T35" s="146"/>
+      <c r="U35" s="146"/>
+      <c r="V35" s="146"/>
+      <c r="W35" s="146"/>
+      <c r="X35" s="146"/>
+      <c r="Y35" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z35" s="144"/>
+      <c r="AA35" s="144"/>
+      <c r="AB35" s="144"/>
+      <c r="AC35" s="144"/>
+      <c r="AD35" s="144"/>
+      <c r="AE35" s="144"/>
+      <c r="AF35" s="144"/>
+      <c r="AG35" s="144"/>
+      <c r="AH35" s="144"/>
+      <c r="AI35" s="144"/>
+      <c r="AJ35" s="144"/>
+      <c r="AK35" s="144"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+    </row>
+    <row r="36" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+    </row>
+    <row r="37" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+    </row>
+    <row r="38" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+    </row>
+    <row r="39" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+    </row>
+    <row r="40" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="111">
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:X35"/>
+    <mergeCell ref="Y35:AK35"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="G31:K33"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="Y31:AK31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="Y32:AK32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:X33"/>
+    <mergeCell ref="Y33:AK33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:X34"/>
+    <mergeCell ref="Y34:AK34"/>
     <mergeCell ref="O1:T3"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -7920,6 +8803,24 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:X24"/>
     <mergeCell ref="Y24:AK24"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:X29"/>
+    <mergeCell ref="Y29:AK29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:X30"/>
+    <mergeCell ref="Y30:AK30"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AK25"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:X28"/>
+    <mergeCell ref="Y28:AK28"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AK26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="Y27:AK27"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
